--- a/Docs/Tagging/Tagging for Real - Juan.xlsx
+++ b/Docs/Tagging/Tagging for Real - Juan.xlsx
@@ -69,12 +69,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+You can walk into the ship</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="81">
   <si>
     <t>artefact</t>
   </si>
@@ -259,9 +283,6 @@
     <t>circular display</t>
   </si>
   <si>
-    <t>haxagoanl display</t>
-  </si>
-  <si>
     <t>open display</t>
   </si>
   <si>
@@ -317,6 +338,9 @@
   </si>
   <si>
     <t>trackball</t>
+  </si>
+  <si>
+    <t>hexagoanl display</t>
   </si>
 </sst>
 </file>
@@ -777,11 +801,11 @@
   </sheetPr>
   <dimension ref="A1:BT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD3" sqref="AD3"/>
+      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +846,7 @@
       <c r="AB1" s="8"/>
       <c r="AC1" s="8"/>
       <c r="AD1" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE1" s="10"/>
       <c r="AF1" s="10"/>
@@ -855,7 +879,7 @@
       <c r="BA1" s="8"/>
       <c r="BB1" s="8"/>
       <c r="BC1" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BD1" s="8"/>
       <c r="BE1" s="8"/>
@@ -873,7 +897,7 @@
       <c r="BQ1" s="8"/>
       <c r="BR1" s="8"/>
       <c r="BS1" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BT1" s="8"/>
     </row>
@@ -906,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>9</v>
@@ -963,19 +987,19 @@
         <v>28</v>
       </c>
       <c r="AD2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>30</v>
@@ -1011,10 +1035,10 @@
         <v>41</v>
       </c>
       <c r="AT2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="AV2" s="3" t="s">
         <v>43</v>
@@ -1068,28 +1092,28 @@
         <v>60</v>
       </c>
       <c r="BM2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BO2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BO2" s="4" t="s">
+      <c r="BP2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BR2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BR2" s="2" t="s">
+      <c r="BS2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BS2" s="3" t="s">
+      <c r="BT2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
@@ -1106,11 +1130,11 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1135,11 +1159,11 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM3" s="5"/>
       <c r="AN3" s="5"/>
@@ -1161,7 +1185,7 @@
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
       <c r="BF3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG3" s="5"/>
       <c r="BH3" s="5"/>
@@ -1188,15 +1212,17 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -1210,7 +1236,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
@@ -1223,19 +1249,19 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
       <c r="AR4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS4" s="5"/>
       <c r="AT4" s="5"/>
@@ -1251,7 +1277,7 @@
       <c r="BD4" s="5"/>
       <c r="BE4" s="5"/>
       <c r="BF4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG4" s="5"/>
       <c r="BH4" s="5"/>
@@ -1298,7 +1324,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
@@ -1333,7 +1359,7 @@
       <c r="BF5" s="5"/>
       <c r="BG5" s="5"/>
       <c r="BH5" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BI5" s="5"/>
       <c r="BJ5" s="5"/>
@@ -1378,7 +1404,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
@@ -1413,7 +1439,7 @@
       <c r="BF6" s="5"/>
       <c r="BG6" s="5"/>
       <c r="BH6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BI6" s="5"/>
       <c r="BJ6" s="5"/>
@@ -1436,11 +1462,11 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1455,14 +1481,14 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
@@ -1480,26 +1506,26 @@
       <c r="AM7" s="5"/>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AR7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU7" s="5"/>
       <c r="AV7" s="5"/>
       <c r="AW7" s="5"/>
       <c r="AX7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY7" s="5"/>
       <c r="AZ7" s="5"/>
@@ -1517,7 +1543,7 @@
       <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
       <c r="BN7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BO7" s="5"/>
       <c r="BP7" s="5"/>
@@ -1532,13 +1558,13 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1554,7 +1580,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
@@ -1562,7 +1588,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -1578,30 +1604,30 @@
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
       <c r="AX8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY8" s="5"/>
       <c r="AZ8" s="5"/>
@@ -1640,7 +1666,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1655,7 +1681,7 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -1669,12 +1695,12 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
@@ -1695,7 +1721,7 @@
       <c r="BD9" s="5"/>
       <c r="BE9" s="5"/>
       <c r="BF9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG9" s="5"/>
       <c r="BH9" s="5"/>
@@ -1719,16 +1745,18 @@
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1743,7 +1771,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -1759,10 +1787,10 @@
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
@@ -1803,16 +1831,18 @@
         <v>24</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1830,7 +1860,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
@@ -1846,14 +1876,14 @@
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
@@ -1864,7 +1894,7 @@
       <c r="AW11" s="5"/>
       <c r="AX11" s="5"/>
       <c r="AY11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AZ11" s="5"/>
       <c r="BA11" s="5"/>
@@ -1878,7 +1908,7 @@
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL11" s="5"/>
       <c r="BM11" s="5"/>
@@ -1886,7 +1916,7 @@
       <c r="BO11" s="5"/>
       <c r="BP11" s="5"/>
       <c r="BQ11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BR11" s="5"/>
       <c r="BS11" s="5"/>
@@ -1902,11 +1932,13 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -1933,7 +1965,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
@@ -1950,7 +1982,7 @@
       <c r="AW12" s="5"/>
       <c r="AX12" s="5"/>
       <c r="AY12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AZ12" s="5"/>
       <c r="BA12" s="5"/>
@@ -1959,7 +1991,7 @@
       <c r="BD12" s="5"/>
       <c r="BE12" s="5"/>
       <c r="BF12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG12" s="5"/>
       <c r="BH12" s="5"/>
@@ -1990,7 +2022,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2020,7 +2052,7 @@
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
@@ -2034,7 +2066,7 @@
       <c r="AW13" s="5"/>
       <c r="AX13" s="5"/>
       <c r="AY13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AZ13" s="5"/>
       <c r="BA13" s="5"/>
@@ -2043,7 +2075,7 @@
       <c r="BD13" s="5"/>
       <c r="BE13" s="5"/>
       <c r="BF13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG13" s="5"/>
       <c r="BH13" s="5"/>
@@ -2051,7 +2083,9 @@
       <c r="BJ13" s="5"/>
       <c r="BK13" s="5"/>
       <c r="BL13" s="5"/>
-      <c r="BM13" s="5"/>
+      <c r="BM13" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BN13" s="5"/>
       <c r="BO13" s="5"/>
       <c r="BP13" s="5"/>
@@ -2065,14 +2099,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2090,7 +2126,7 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
@@ -2106,29 +2142,29 @@
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
       <c r="AM14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
       <c r="AR14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS14" s="5"/>
       <c r="AT14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU14" s="5"/>
       <c r="AV14" s="5"/>
       <c r="AW14" s="5"/>
       <c r="AX14" s="5"/>
       <c r="AY14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AZ14" s="5"/>
       <c r="BA14" s="5"/>
@@ -2142,7 +2178,7 @@
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BL14" s="5"/>
       <c r="BM14" s="5"/>
@@ -2150,7 +2186,7 @@
       <c r="BO14" s="5"/>
       <c r="BP14" s="5"/>
       <c r="BQ14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BR14" s="5"/>
       <c r="BS14" s="5"/>
@@ -2169,7 +2205,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -2185,10 +2221,10 @@
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
@@ -2204,7 +2240,7 @@
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
       <c r="AM15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
@@ -2225,7 +2261,7 @@
       <c r="BD15" s="5"/>
       <c r="BE15" s="5"/>
       <c r="BF15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG15" s="5"/>
       <c r="BH15" s="5"/>
@@ -2257,7 +2293,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -2271,10 +2307,10 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
@@ -2291,7 +2327,7 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="5"/>
       <c r="AN16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
@@ -2303,12 +2339,12 @@
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
       <c r="AX16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY16" s="5"/>
       <c r="AZ16" s="5"/>
       <c r="BA16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BB16" s="5"/>
       <c r="BC16" s="5"/>
@@ -2317,24 +2353,24 @@
       <c r="BF16" s="5"/>
       <c r="BG16" s="5"/>
       <c r="BH16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BI16" s="5"/>
       <c r="BJ16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BK16" s="5"/>
       <c r="BL16" s="5"/>
       <c r="BM16" s="5"/>
       <c r="BN16" s="5"/>
       <c r="BO16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BP16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BQ16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BR16" s="5"/>
       <c r="BS16" s="5"/>
@@ -2345,13 +2381,13 @@
         <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2373,10 +2409,10 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
@@ -2391,11 +2427,11 @@
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM17" s="5"/>
       <c r="AN17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
@@ -2409,7 +2445,7 @@
       <c r="AX17" s="5"/>
       <c r="AY17" s="5"/>
       <c r="AZ17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BA17" s="5"/>
       <c r="BB17" s="5"/>
@@ -2421,20 +2457,20 @@
       <c r="BH17" s="5"/>
       <c r="BI17" s="5"/>
       <c r="BJ17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BK17" s="5"/>
       <c r="BL17" s="5"/>
       <c r="BM17" s="5"/>
       <c r="BN17" s="5"/>
       <c r="BO17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BP17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BQ17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BR17" s="5"/>
       <c r="BS17" s="5"/>
@@ -2445,7 +2481,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2453,11 +2489,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -2468,17 +2504,17 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -2493,29 +2529,29 @@
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AM18" s="5"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU18" s="5"/>
       <c r="AV18" s="5"/>
       <c r="AW18" s="5"/>
       <c r="AX18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AY18" s="5"/>
       <c r="AZ18" s="5"/>
@@ -2529,21 +2565,21 @@
       <c r="BH18" s="5"/>
       <c r="BI18" s="5"/>
       <c r="BJ18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BK18" s="5"/>
       <c r="BL18" s="5"/>
       <c r="BM18" s="5"/>
       <c r="BN18" s="5"/>
       <c r="BO18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BP18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BQ18" s="5"/>
       <c r="BR18" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BS18" s="5"/>
       <c r="BT18" s="5"/>
@@ -2629,14 +2665,16 @@
         <v>33</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -2669,19 +2707,19 @@
       <c r="AL20" s="5"/>
       <c r="AM20" s="5"/>
       <c r="AN20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
       <c r="AR20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU20" s="5"/>
       <c r="AV20" s="5"/>
@@ -2689,7 +2727,7 @@
       <c r="AX20" s="5"/>
       <c r="AY20" s="5"/>
       <c r="AZ20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BA20" s="5"/>
       <c r="BB20" s="5"/>
@@ -2701,27 +2739,29 @@
       <c r="BH20" s="5"/>
       <c r="BI20" s="5"/>
       <c r="BJ20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BK20" s="5"/>
       <c r="BL20" s="5"/>
       <c r="BM20" s="5"/>
       <c r="BN20" s="5"/>
       <c r="BO20" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BP20" s="5"/>
       <c r="BQ20" s="5"/>
       <c r="BR20" s="5"/>
       <c r="BS20" s="5"/>
-      <c r="BT20" s="5"/>
+      <c r="BT20" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>34</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2745,7 +2785,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -2763,19 +2803,19 @@
       <c r="AL21" s="5"/>
       <c r="AM21" s="5"/>
       <c r="AN21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO21" s="5"/>
       <c r="AP21" s="5"/>
       <c r="AQ21" s="5"/>
       <c r="AR21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU21" s="5"/>
       <c r="AV21" s="5"/>
@@ -2783,7 +2823,7 @@
       <c r="AX21" s="5"/>
       <c r="AY21" s="5"/>
       <c r="AZ21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BA21" s="5"/>
       <c r="BB21" s="5"/>
@@ -2795,14 +2835,14 @@
       <c r="BH21" s="5"/>
       <c r="BI21" s="5"/>
       <c r="BJ21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BK21" s="5"/>
       <c r="BL21" s="5"/>
       <c r="BM21" s="5"/>
       <c r="BN21" s="5"/>
       <c r="BO21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BP21" s="5"/>
       <c r="BQ21" s="5"/>
@@ -2815,13 +2855,13 @@
         <v>35</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2829,11 +2869,11 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -2848,7 +2888,7 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
@@ -2865,32 +2905,32 @@
       <c r="AL22" s="5"/>
       <c r="AM22" s="5"/>
       <c r="AN22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
       <c r="AR22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT22" s="5"/>
       <c r="AU22" s="5"/>
       <c r="AV22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AW22" s="5"/>
       <c r="AX22" s="5"/>
       <c r="AY22" s="5"/>
       <c r="AZ22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BA22" s="5"/>
       <c r="BB22" s="5"/>
       <c r="BC22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BD22" s="5"/>
       <c r="BE22" s="5"/>
@@ -2899,21 +2939,21 @@
       <c r="BH22" s="5"/>
       <c r="BI22" s="5"/>
       <c r="BJ22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BK22" s="5"/>
       <c r="BL22" s="5"/>
       <c r="BM22" s="5"/>
       <c r="BN22" s="5"/>
       <c r="BO22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BP22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BQ22" s="5"/>
       <c r="BR22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BS22" s="5"/>
       <c r="BT22" s="5"/>
@@ -2922,13 +2962,13 @@
       <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2938,7 +2978,7 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -2956,7 +2996,9 @@
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
+      <c r="AF23" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -2964,10 +3006,10 @@
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
@@ -2980,10 +3022,10 @@
       <c r="AW23" s="5"/>
       <c r="AX23" s="5"/>
       <c r="AY23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AZ23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BA23" s="5"/>
       <c r="BB23" s="5"/>
@@ -2991,7 +3033,7 @@
       <c r="BD23" s="5"/>
       <c r="BE23" s="5"/>
       <c r="BF23" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG23" s="5"/>
       <c r="BH23" s="5"/>
@@ -3089,18 +3131,18 @@
         <v>38</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
@@ -3108,74 +3150,78 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
+      <c r="AF25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="AH25" s="7"/>
       <c r="AI25" s="7"/>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AN25" s="7"/>
       <c r="AO25" s="7"/>
       <c r="AP25" s="7"/>
       <c r="AQ25" s="7"/>
       <c r="AR25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AS25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AU25" s="7"/>
       <c r="AV25" s="7"/>
       <c r="AW25" s="7"/>
       <c r="AX25" s="7"/>
       <c r="AY25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AZ25" s="7"/>
       <c r="BA25" s="7"/>
       <c r="BB25" s="7"/>
       <c r="BC25" s="7"/>
       <c r="BD25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BE25" s="7"/>
       <c r="BF25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG25" s="7"/>
       <c r="BH25" s="7"/>
@@ -3200,7 +3246,9 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -3217,7 +3265,9 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="W26" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
@@ -3233,7 +3283,9 @@
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
+      <c r="AM26" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
@@ -3245,7 +3297,9 @@
       <c r="AV26" s="5"/>
       <c r="AW26" s="5"/>
       <c r="AX26" s="5"/>
-      <c r="AY26" s="5"/>
+      <c r="AY26" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ26" s="5"/>
       <c r="BA26" s="5"/>
       <c r="BB26" s="5"/>
@@ -3257,7 +3311,9 @@
       <c r="BH26" s="5"/>
       <c r="BI26" s="5"/>
       <c r="BJ26" s="5"/>
-      <c r="BK26" s="5"/>
+      <c r="BK26" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BL26" s="5"/>
       <c r="BM26" s="5"/>
       <c r="BN26" s="5"/>
@@ -3275,7 +3331,9 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3294,7 +3352,9 @@
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
+      <c r="X27" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
@@ -3305,23 +3365,41 @@
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
+      <c r="AI27" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
+      <c r="AM27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN27" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
+      <c r="AP27" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
+      <c r="AR27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT27" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AU27" s="5"/>
       <c r="AV27" s="5"/>
       <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
+      <c r="AX27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY27" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ27" s="5"/>
       <c r="BA27" s="5"/>
       <c r="BB27" s="5"/>
@@ -3333,14 +3411,20 @@
       <c r="BH27" s="5"/>
       <c r="BI27" s="5"/>
       <c r="BJ27" s="5"/>
-      <c r="BK27" s="5"/>
+      <c r="BK27" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BL27" s="5"/>
       <c r="BM27" s="5"/>
       <c r="BN27" s="5"/>
       <c r="BO27" s="5"/>
       <c r="BP27" s="5"/>
-      <c r="BQ27" s="5"/>
-      <c r="BR27" s="5"/>
+      <c r="BQ27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR27" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BS27" s="5"/>
       <c r="BT27" s="5"/>
     </row>
@@ -3352,7 +3436,9 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -3379,37 +3465,55 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
+      <c r="AG28" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
+      <c r="AM28" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
       <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
+      <c r="AR28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT28" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AU28" s="5"/>
       <c r="AV28" s="5"/>
       <c r="AW28" s="5"/>
       <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
+      <c r="AY28" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
+      <c r="BA28" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BB28" s="5"/>
       <c r="BC28" s="5"/>
       <c r="BD28" s="5"/>
       <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
+      <c r="BF28" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BG28" s="5"/>
       <c r="BH28" s="5"/>
       <c r="BI28" s="5"/>
       <c r="BJ28" s="5"/>
-      <c r="BK28" s="5"/>
+      <c r="BK28" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BL28" s="5"/>
       <c r="BM28" s="5"/>
       <c r="BN28" s="5"/>
@@ -3508,7 +3612,9 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="J30" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -3516,20 +3622,30 @@
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
+      <c r="R30" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
+      <c r="X30" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
+      <c r="AC30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE30" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
@@ -3537,7 +3653,9 @@
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
+      <c r="AM30" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
@@ -3556,7 +3674,9 @@
       <c r="BC30" s="5"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
-      <c r="BF30" s="5"/>
+      <c r="BF30" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BG30" s="5"/>
       <c r="BH30" s="5"/>
       <c r="BI30" s="5"/>
@@ -3569,7 +3689,9 @@
       <c r="BP30" s="5"/>
       <c r="BQ30" s="5"/>
       <c r="BR30" s="5"/>
-      <c r="BS30" s="5"/>
+      <c r="BS30" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BT30" s="5"/>
     </row>
     <row r="31" spans="1:72" x14ac:dyDescent="0.25">
@@ -3580,7 +3702,9 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -3598,7 +3722,9 @@
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
+      <c r="X31" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
@@ -3614,7 +3740,9 @@
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
       <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
+      <c r="AN31" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
       <c r="AQ31" s="5"/>
@@ -3732,7 +3860,9 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -3740,7 +3870,9 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="N33" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -3749,9 +3881,13 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
+      <c r="W33" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
+      <c r="Y33" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
@@ -3765,19 +3901,29 @@
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
+      <c r="AM33" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
+      <c r="AR33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT33" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AU33" s="5"/>
       <c r="AV33" s="5"/>
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
+      <c r="AY33" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ33" s="5"/>
       <c r="BA33" s="5"/>
       <c r="BB33" s="5"/>
@@ -3789,13 +3935,17 @@
       <c r="BH33" s="5"/>
       <c r="BI33" s="5"/>
       <c r="BJ33" s="5"/>
-      <c r="BK33" s="5"/>
+      <c r="BK33" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BL33" s="5"/>
       <c r="BM33" s="5"/>
       <c r="BN33" s="5"/>
       <c r="BO33" s="5"/>
       <c r="BP33" s="5"/>
-      <c r="BQ33" s="5"/>
+      <c r="BQ33" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BR33" s="5"/>
       <c r="BS33" s="5"/>
       <c r="BT33" s="5"/>
@@ -3959,9 +4109,13 @@
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -3969,17 +4123,27 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
+      <c r="T36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
+      <c r="Y36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
@@ -3991,15 +4155,21 @@
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
+      <c r="AK36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
+      <c r="AN36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
       <c r="AQ36" s="5"/>
       <c r="AR36" s="5"/>
-      <c r="AS36" s="5"/>
+      <c r="AS36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AT36" s="5"/>
       <c r="AU36" s="5"/>
       <c r="AV36" s="5"/>
@@ -4008,7 +4178,9 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="5"/>
       <c r="BA36" s="5"/>
-      <c r="BB36" s="5"/>
+      <c r="BB36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BC36" s="5"/>
       <c r="BD36" s="5"/>
       <c r="BE36" s="5"/>
@@ -4020,11 +4192,15 @@
       <c r="BK36" s="5"/>
       <c r="BL36" s="5"/>
       <c r="BM36" s="5"/>
-      <c r="BN36" s="5"/>
+      <c r="BN36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BO36" s="5"/>
       <c r="BP36" s="5"/>
       <c r="BQ36" s="5"/>
-      <c r="BR36" s="5"/>
+      <c r="BR36" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BS36" s="5"/>
       <c r="BT36" s="5"/>
     </row>
@@ -4032,7 +4208,9 @@
       <c r="A37">
         <v>50</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -4050,16 +4228,22 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
+      <c r="T37" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
+      <c r="Y37" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
+      <c r="AC37" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
@@ -4071,7 +4255,9 @@
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
+      <c r="AO37" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AP37" s="5"/>
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5"/>
@@ -4092,12 +4278,16 @@
       <c r="BG37" s="5"/>
       <c r="BH37" s="5"/>
       <c r="BI37" s="5"/>
-      <c r="BJ37" s="5"/>
+      <c r="BJ37" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BK37" s="5"/>
       <c r="BL37" s="5"/>
       <c r="BM37" s="5"/>
       <c r="BN37" s="5"/>
-      <c r="BO37" s="5"/>
+      <c r="BO37" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BP37" s="5"/>
       <c r="BQ37" s="5"/>
       <c r="BR37" s="5"/>
@@ -4111,7 +4301,9 @@
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -4121,17 +4313,27 @@
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="O38" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
+      <c r="T38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
+      <c r="X38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="Z38" s="7"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="7"/>
@@ -4146,7 +4348,9 @@
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
+      <c r="AN38" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="AO38" s="7"/>
       <c r="AP38" s="7"/>
       <c r="AQ38" s="7"/>
@@ -4162,8 +4366,12 @@
       <c r="BA38" s="7"/>
       <c r="BB38" s="7"/>
       <c r="BC38" s="7"/>
-      <c r="BD38" s="7"/>
-      <c r="BE38" s="7"/>
+      <c r="BD38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE38" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="BF38" s="7"/>
       <c r="BG38" s="7"/>
       <c r="BH38" s="7"/>
@@ -4172,11 +4380,15 @@
       <c r="BK38" s="7"/>
       <c r="BL38" s="7"/>
       <c r="BM38" s="7"/>
-      <c r="BN38" s="7"/>
+      <c r="BN38" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="BO38" s="7"/>
       <c r="BP38" s="7"/>
       <c r="BQ38" s="7"/>
-      <c r="BR38" s="7"/>
+      <c r="BR38" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="BS38" s="7"/>
       <c r="BT38" s="7"/>
     </row>
@@ -4260,7 +4472,9 @@
       <c r="A40">
         <v>53</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -4282,8 +4496,12 @@
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
+      <c r="X40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y40" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
@@ -4298,37 +4516,57 @@
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
+      <c r="AN40" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-      <c r="AT40" s="5"/>
+      <c r="AR40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT40" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AU40" s="5"/>
       <c r="AV40" s="5"/>
       <c r="AW40" s="5"/>
       <c r="AX40" s="5"/>
-      <c r="AY40" s="5"/>
+      <c r="AY40" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ40" s="5"/>
       <c r="BA40" s="5"/>
       <c r="BB40" s="5"/>
       <c r="BC40" s="5"/>
       <c r="BD40" s="5"/>
-      <c r="BE40" s="5"/>
+      <c r="BE40" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BF40" s="5"/>
       <c r="BG40" s="5"/>
       <c r="BH40" s="5"/>
       <c r="BI40" s="5"/>
-      <c r="BJ40" s="5"/>
+      <c r="BJ40" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BK40" s="5"/>
       <c r="BL40" s="5"/>
       <c r="BM40" s="5"/>
       <c r="BN40" s="5"/>
       <c r="BO40" s="5"/>
-      <c r="BP40" s="5"/>
-      <c r="BQ40" s="5"/>
-      <c r="BR40" s="5"/>
+      <c r="BP40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BQ40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR40" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BS40" s="5"/>
       <c r="BT40" s="5"/>
     </row>
@@ -4414,7 +4652,9 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
@@ -4430,12 +4670,16 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
+      <c r="T42" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
+      <c r="Y42" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
@@ -4451,17 +4695,29 @@
       <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
       <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
+      <c r="AO42" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
-      <c r="AS42" s="5"/>
-      <c r="AT42" s="5"/>
+      <c r="AQ42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT42" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AU42" s="5"/>
       <c r="AV42" s="5"/>
       <c r="AW42" s="5"/>
       <c r="AX42" s="5"/>
-      <c r="AY42" s="5"/>
+      <c r="AY42" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ42" s="5"/>
       <c r="BA42" s="5"/>
       <c r="BB42" s="5"/>
@@ -4473,13 +4729,17 @@
       <c r="BH42" s="5"/>
       <c r="BI42" s="5"/>
       <c r="BJ42" s="5"/>
-      <c r="BK42" s="5"/>
+      <c r="BK42" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BL42" s="5"/>
       <c r="BM42" s="5"/>
       <c r="BN42" s="5"/>
       <c r="BO42" s="5"/>
       <c r="BP42" s="5"/>
-      <c r="BQ42" s="5"/>
+      <c r="BQ42" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BR42" s="5"/>
       <c r="BS42" s="5"/>
       <c r="BT42" s="5"/>
@@ -4493,8 +4753,12 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="G43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
@@ -4506,8 +4770,12 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
+      <c r="T43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
@@ -4526,7 +4794,9 @@
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
+      <c r="AN43" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
       <c r="AQ43" s="5"/>
@@ -4552,11 +4822,15 @@
       <c r="BK43" s="5"/>
       <c r="BL43" s="5"/>
       <c r="BM43" s="5"/>
-      <c r="BN43" s="5"/>
+      <c r="BN43" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BO43" s="5"/>
       <c r="BP43" s="5"/>
       <c r="BQ43" s="5"/>
-      <c r="BR43" s="5"/>
+      <c r="BR43" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BS43" s="5"/>
       <c r="BT43" s="5"/>
     </row>
@@ -4640,7 +4914,9 @@
       <c r="A45">
         <v>58</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -4652,25 +4928,39 @@
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="N45" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="O45" s="5"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
+      <c r="T45" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
+      <c r="X45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
+      <c r="AB45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
+      <c r="AF45" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AG45" s="5"/>
       <c r="AH45" s="5"/>
       <c r="AI45" s="5"/>
@@ -4689,9 +4979,13 @@
       <c r="AV45" s="5"/>
       <c r="AW45" s="5"/>
       <c r="AX45" s="5"/>
-      <c r="AY45" s="5"/>
+      <c r="AY45" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ45" s="5"/>
-      <c r="BA45" s="5"/>
+      <c r="BA45" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BB45" s="5"/>
       <c r="BC45" s="5"/>
       <c r="BD45" s="5"/>
@@ -4708,7 +5002,9 @@
       <c r="BO45" s="5"/>
       <c r="BP45" s="5"/>
       <c r="BQ45" s="5"/>
-      <c r="BR45" s="5"/>
+      <c r="BR45" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BS45" s="5"/>
       <c r="BT45" s="5"/>
     </row>
@@ -4726,12 +5022,18 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
+      <c r="L46" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="O46" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
@@ -4739,23 +5041,33 @@
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
+      <c r="Y46" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
+      <c r="AC46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD46" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
+      <c r="AH46" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AI46" s="5"/>
       <c r="AJ46" s="5"/>
       <c r="AK46" s="5"/>
       <c r="AL46" s="5"/>
       <c r="AM46" s="5"/>
       <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
+      <c r="AO46" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AP46" s="5"/>
       <c r="AQ46" s="5"/>
       <c r="AR46" s="5"/>
@@ -4783,7 +5095,9 @@
       <c r="BN46" s="5"/>
       <c r="BO46" s="5"/>
       <c r="BP46" s="5"/>
-      <c r="BQ46" s="5"/>
+      <c r="BQ46" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BR46" s="5"/>
       <c r="BS46" s="5"/>
       <c r="BT46" s="5"/>
@@ -4795,8 +5109,12 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -4822,7 +5140,9 @@
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
+      <c r="AF47" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AG47" s="5"/>
       <c r="AH47" s="5"/>
       <c r="AI47" s="5"/>
@@ -4831,7 +5151,9 @@
       <c r="AL47" s="5"/>
       <c r="AM47" s="5"/>
       <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
+      <c r="AO47" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AP47" s="5"/>
       <c r="AQ47" s="5"/>
       <c r="AR47" s="5"/>
@@ -4852,15 +5174,21 @@
       <c r="BG47" s="5"/>
       <c r="BH47" s="5"/>
       <c r="BI47" s="5"/>
-      <c r="BJ47" s="5"/>
+      <c r="BJ47" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BK47" s="5"/>
-      <c r="BL47" s="5"/>
+      <c r="BL47" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BM47" s="5"/>
       <c r="BN47" s="5"/>
       <c r="BO47" s="5"/>
       <c r="BP47" s="5"/>
       <c r="BQ47" s="5"/>
-      <c r="BR47" s="5"/>
+      <c r="BR47" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BS47" s="5"/>
       <c r="BT47" s="5"/>
     </row>
@@ -4868,7 +5196,9 @@
       <c r="A48">
         <v>61</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -4885,13 +5215,19 @@
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
+      <c r="X48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
@@ -4905,19 +5241,29 @@
       <c r="AJ48" s="5"/>
       <c r="AK48" s="5"/>
       <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
+      <c r="AM48" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AN48" s="5"/>
       <c r="AO48" s="5"/>
       <c r="AP48" s="5"/>
       <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-      <c r="AT48" s="5"/>
+      <c r="AR48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT48" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AU48" s="5"/>
       <c r="AV48" s="5"/>
       <c r="AW48" s="5"/>
       <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
+      <c r="AY48" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ48" s="5"/>
       <c r="BA48" s="5"/>
       <c r="BB48" s="5"/>
@@ -4929,13 +5275,17 @@
       <c r="BH48" s="5"/>
       <c r="BI48" s="5"/>
       <c r="BJ48" s="5"/>
-      <c r="BK48" s="5"/>
+      <c r="BK48" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BL48" s="5"/>
       <c r="BM48" s="5"/>
       <c r="BN48" s="5"/>
       <c r="BO48" s="5"/>
       <c r="BP48" s="5"/>
-      <c r="BQ48" s="5"/>
+      <c r="BQ48" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BR48" s="5"/>
       <c r="BS48" s="5"/>
       <c r="BT48" s="5"/>
@@ -4944,7 +5294,9 @@
       <c r="A49">
         <v>62</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -4957,8 +5309,12 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+      <c r="O49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
@@ -4966,54 +5322,86 @@
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
+      <c r="X49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
+      <c r="AF49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
+      <c r="AI49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
+      <c r="AK49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
+      <c r="AM49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AO49" s="5"/>
       <c r="AP49" s="5"/>
       <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="5"/>
-      <c r="AT49" s="5"/>
+      <c r="AR49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AU49" s="5"/>
       <c r="AV49" s="5"/>
       <c r="AW49" s="5"/>
-      <c r="AX49" s="5"/>
-      <c r="AY49" s="5"/>
+      <c r="AX49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ49" s="5"/>
       <c r="BA49" s="5"/>
       <c r="BB49" s="5"/>
       <c r="BC49" s="5"/>
-      <c r="BD49" s="5"/>
+      <c r="BD49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BE49" s="5"/>
       <c r="BF49" s="5"/>
       <c r="BG49" s="5"/>
       <c r="BH49" s="5"/>
       <c r="BI49" s="5"/>
       <c r="BJ49" s="5"/>
-      <c r="BK49" s="5"/>
+      <c r="BK49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BL49" s="5"/>
       <c r="BM49" s="5"/>
       <c r="BN49" s="5"/>
       <c r="BO49" s="5"/>
       <c r="BP49" s="5"/>
-      <c r="BQ49" s="5"/>
+      <c r="BQ49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BR49" s="5"/>
-      <c r="BS49" s="5"/>
+      <c r="BS49" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BT49" s="5"/>
     </row>
     <row r="50" spans="1:72" x14ac:dyDescent="0.25">
@@ -5022,14 +5410,18 @@
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="K50" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -5042,8 +5434,12 @@
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
+      <c r="X50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
@@ -5055,28 +5451,46 @@
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
       <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
+      <c r="AK50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM50" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AN50" s="5"/>
       <c r="AO50" s="5"/>
       <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-      <c r="AR50" s="5"/>
-      <c r="AS50" s="5"/>
-      <c r="AT50" s="5"/>
+      <c r="AQ50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT50" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AU50" s="5"/>
       <c r="AV50" s="5"/>
       <c r="AW50" s="5"/>
       <c r="AX50" s="5"/>
-      <c r="AY50" s="5"/>
+      <c r="AY50" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="AZ50" s="5"/>
       <c r="BA50" s="5"/>
       <c r="BB50" s="5"/>
       <c r="BC50" s="5"/>
       <c r="BD50" s="5"/>
       <c r="BE50" s="5"/>
-      <c r="BF50" s="5"/>
+      <c r="BF50" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BG50" s="5"/>
       <c r="BH50" s="5"/>
       <c r="BI50" s="5"/>
@@ -5087,7 +5501,9 @@
       <c r="BN50" s="5"/>
       <c r="BO50" s="5"/>
       <c r="BP50" s="5"/>
-      <c r="BQ50" s="5"/>
+      <c r="BQ50" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="BR50" s="5"/>
       <c r="BS50" s="5"/>
       <c r="BT50" s="5"/>
